--- a/MedicalLink/Templates/BC_PhauThuat_YeuCauQD1055_ThanhToan.xlsx
+++ b/MedicalLink/Templates/BC_PhauThuat_YeuCauQD1055_ThanhToan.xlsx
@@ -65,9 +65,6 @@
     <t>Tiền</t>
   </si>
   <si>
-    <t>BỆNH VIỆN HỮU NGHỊ VIỆT TIỆP</t>
-  </si>
-  <si>
     <t>TỔNG CỘNG</t>
   </si>
   <si>
@@ -141,6 +138,9 @@
   </si>
   <si>
     <t>&amp;=[DATA1].BANLANHDAO_TIEN</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA].TENBENHVIEN</t>
   </si>
 </sst>
 </file>
@@ -416,47 +416,47 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -741,8 +741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="F1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -768,94 +768,94 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:17" s="4" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="3"/>
       <c r="D2" s="16"/>
-      <c r="E2" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
+      <c r="E2" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
       <c r="N2" s="7"/>
     </row>
     <row r="3" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D3" s="17"/>
-      <c r="E3" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
+      <c r="E3" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
     </row>
     <row r="4" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:17" s="2" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="27" t="s">
+      <c r="D7" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="27" t="s">
+      <c r="F7" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="27" t="s">
+      <c r="G7" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="35" t="s">
+      <c r="H7" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="I7" s="36"/>
-      <c r="J7" s="35" t="s">
+      <c r="I7" s="34"/>
+      <c r="J7" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="K7" s="36"/>
-      <c r="L7" s="35" t="s">
+      <c r="K7" s="34"/>
+      <c r="L7" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="M7" s="36"/>
-      <c r="N7" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="O7" s="38"/>
-      <c r="P7" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q7" s="33" t="s">
+      <c r="M7" s="34"/>
+      <c r="N7" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="O7" s="36"/>
+      <c r="P7" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q7" s="31" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:17" s="14" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="28"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
+      <c r="A8" s="30"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
       <c r="H8" s="12" t="s">
         <v>10</v>
       </c>
@@ -875,13 +875,13 @@
         <v>11</v>
       </c>
       <c r="N8" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O8" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="P8" s="28"/>
-      <c r="Q8" s="34"/>
+      <c r="P8" s="30"/>
+      <c r="Q8" s="32"/>
     </row>
     <row r="9" spans="1:17" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
@@ -938,63 +938,63 @@
     </row>
     <row r="10" spans="1:17" s="23" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="C10" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="D10" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="J10" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="K10" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="L10" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="M10" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="N10" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="H10" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="I10" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="J10" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="K10" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="L10" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="M10" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="N10" s="20" t="s">
-        <v>19</v>
-      </c>
       <c r="O10" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="P10" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q10" s="24" t="s">
         <v>33</v>
-      </c>
-      <c r="P10" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q10" s="24" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:17" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="31"/>
-      <c r="C11" s="32"/>
+      <c r="A11" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="27"/>
+      <c r="C11" s="28"/>
       <c r="D11" s="10"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9">
@@ -1029,13 +1029,18 @@
       <c r="Q11" s="10"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="P14" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q14" s="29"/>
+      <c r="P14" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q14" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="E2:M2"/>
+    <mergeCell ref="E3:M3"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
     <mergeCell ref="P14:Q14"/>
     <mergeCell ref="A11:C11"/>
     <mergeCell ref="A7:A8"/>
@@ -1048,11 +1053,6 @@
     <mergeCell ref="P7:P8"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="L7:M7"/>
-    <mergeCell ref="E2:M2"/>
-    <mergeCell ref="E3:M3"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup scale="51" orientation="landscape" r:id="rId1"/>

--- a/MedicalLink/Templates/BC_PhauThuat_YeuCauQD1055_ThanhToan.xlsx
+++ b/MedicalLink/Templates/BC_PhauThuat_YeuCauQD1055_ThanhToan.xlsx
@@ -416,6 +416,18 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -428,12 +440,6 @@
     <xf numFmtId="164" fontId="2" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="7" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -451,12 +457,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -742,7 +742,7 @@
   <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -775,87 +775,87 @@
       <c r="A2" s="5"/>
       <c r="B2" s="3"/>
       <c r="D2" s="16"/>
-      <c r="E2" s="37" t="s">
+      <c r="E2" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
       <c r="N2" s="7"/>
     </row>
     <row r="3" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D3" s="17"/>
-      <c r="E3" s="38" t="s">
+      <c r="E3" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
     </row>
     <row r="4" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:17" s="2" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="31" t="s">
+      <c r="D7" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="29" t="s">
+      <c r="E7" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="29" t="s">
+      <c r="F7" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="29" t="s">
+      <c r="G7" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="33" t="s">
+      <c r="H7" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="I7" s="34"/>
-      <c r="J7" s="33" t="s">
+      <c r="I7" s="36"/>
+      <c r="J7" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="K7" s="34"/>
-      <c r="L7" s="33" t="s">
+      <c r="K7" s="36"/>
+      <c r="L7" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="M7" s="34"/>
-      <c r="N7" s="35" t="s">
+      <c r="M7" s="36"/>
+      <c r="N7" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="O7" s="36"/>
-      <c r="P7" s="29" t="s">
+      <c r="O7" s="38"/>
+      <c r="P7" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="Q7" s="31" t="s">
+      <c r="Q7" s="33" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:17" s="14" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="30"/>
-      <c r="B8" s="30"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
+      <c r="A8" s="28"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
       <c r="H8" s="12" t="s">
         <v>10</v>
       </c>
@@ -880,8 +880,8 @@
       <c r="O8" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="P8" s="30"/>
-      <c r="Q8" s="32"/>
+      <c r="P8" s="28"/>
+      <c r="Q8" s="34"/>
     </row>
     <row r="9" spans="1:17" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
@@ -990,11 +990,11 @@
       </c>
     </row>
     <row r="11" spans="1:17" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="27"/>
-      <c r="C11" s="28"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="32"/>
       <c r="D11" s="10"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9">
@@ -1029,18 +1029,13 @@
       <c r="Q11" s="10"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="P14" s="25" t="s">
+      <c r="P14" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="Q14" s="25"/>
+      <c r="Q14" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="E2:M2"/>
-    <mergeCell ref="E3:M3"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
     <mergeCell ref="P14:Q14"/>
     <mergeCell ref="A11:C11"/>
     <mergeCell ref="A7:A8"/>
@@ -1053,6 +1048,11 @@
     <mergeCell ref="P7:P8"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="L7:M7"/>
+    <mergeCell ref="E2:M2"/>
+    <mergeCell ref="E3:M3"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup scale="51" orientation="landscape" r:id="rId1"/>

--- a/MedicalLink/Templates/BC_PhauThuat_YeuCauQD1055_ThanhToan.xlsx
+++ b/MedicalLink/Templates/BC_PhauThuat_YeuCauQD1055_ThanhToan.xlsx
@@ -416,47 +416,47 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -742,7 +742,7 @@
   <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD10"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -775,87 +775,87 @@
       <c r="A2" s="5"/>
       <c r="B2" s="3"/>
       <c r="D2" s="16"/>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
       <c r="N2" s="7"/>
     </row>
     <row r="3" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D3" s="17"/>
-      <c r="E3" s="26" t="s">
+      <c r="E3" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
     </row>
     <row r="4" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:17" s="2" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="33" t="s">
+      <c r="D7" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="27" t="s">
+      <c r="E7" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="27" t="s">
+      <c r="F7" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="27" t="s">
+      <c r="G7" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="35" t="s">
+      <c r="H7" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="I7" s="36"/>
-      <c r="J7" s="35" t="s">
+      <c r="I7" s="34"/>
+      <c r="J7" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="K7" s="36"/>
-      <c r="L7" s="35" t="s">
+      <c r="K7" s="34"/>
+      <c r="L7" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="M7" s="36"/>
-      <c r="N7" s="37" t="s">
+      <c r="M7" s="34"/>
+      <c r="N7" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="O7" s="38"/>
-      <c r="P7" s="27" t="s">
+      <c r="O7" s="36"/>
+      <c r="P7" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="Q7" s="33" t="s">
+      <c r="Q7" s="31" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:17" s="14" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="28"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
+      <c r="A8" s="30"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
       <c r="H8" s="12" t="s">
         <v>10</v>
       </c>
@@ -880,8 +880,8 @@
       <c r="O8" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="P8" s="28"/>
-      <c r="Q8" s="34"/>
+      <c r="P8" s="30"/>
+      <c r="Q8" s="32"/>
     </row>
     <row r="9" spans="1:17" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
@@ -990,11 +990,11 @@
       </c>
     </row>
     <row r="11" spans="1:17" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="30" t="s">
+      <c r="A11" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="31"/>
-      <c r="C11" s="32"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="28"/>
       <c r="D11" s="10"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9">
@@ -1029,13 +1029,18 @@
       <c r="Q11" s="10"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="P14" s="29" t="s">
+      <c r="P14" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="Q14" s="29"/>
+      <c r="Q14" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="E2:M2"/>
+    <mergeCell ref="E3:M3"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
     <mergeCell ref="P14:Q14"/>
     <mergeCell ref="A11:C11"/>
     <mergeCell ref="A7:A8"/>
@@ -1048,13 +1053,8 @@
     <mergeCell ref="P7:P8"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="L7:M7"/>
-    <mergeCell ref="E2:M2"/>
-    <mergeCell ref="E3:M3"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
   </mergeCells>
-  <pageMargins left="0" right="0" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
+  <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup scale="51" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;CTrang &amp;P</oddFooter>
